--- a/CoilsAndSwitches.xlsx
+++ b/CoilsAndSwitches.xlsx
@@ -15,6 +15,9 @@
     <sheet name="Coils" sheetId="1" r:id="rId1"/>
     <sheet name="Switches" sheetId="2" r:id="rId2"/>
   </sheets>
+  <definedNames>
+    <definedName name="LOCAL_MYSQL_DATE_FORMAT" hidden="1">REPT(LOCAL_YEAR_FORMAT,4)&amp;LOCAL_DATE_SEPARATOR&amp;REPT(LOCAL_MONTH_FORMAT,2)&amp;LOCAL_DATE_SEPARATOR&amp;REPT(LOCAL_DAY_FORMAT,2)&amp;" "&amp;REPT(LOCAL_HOUR_FORMAT,2)&amp;LOCAL_TIME_SEPARATOR&amp;REPT(LOCAL_MINUTE_FORMAT,2)&amp;LOCAL_TIME_SEPARATOR&amp;REPT(LOCAL_SECOND_FORMAT,2)</definedName>
+  </definedNames>
   <calcPr calcId="152511"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
@@ -25,7 +28,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="129" uniqueCount="109">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="131" uniqueCount="111">
   <si>
     <t>Coil</t>
   </si>
@@ -352,6 +355,12 @@
   </si>
   <si>
     <t>37</t>
+  </si>
+  <si>
+    <t>Function</t>
+  </si>
+  <si>
+    <t>Coded</t>
   </si>
 </sst>
 </file>
@@ -367,7 +376,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="6">
+  <fills count="7">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -395,6 +404,12 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="9" tint="0.59999389629810485"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.79998168889431442"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -463,27 +478,15 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="20">
+  <cellXfs count="22">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="0" fillId="3" borderId="2" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="0" fillId="3" borderId="3" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="0" fillId="3" borderId="4" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -497,6 +500,21 @@
     <xf numFmtId="0" fontId="0" fillId="4" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="3" borderId="2" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="3" borderId="3" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="3" borderId="4" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -505,9 +523,6 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="5" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -518,12 +533,44 @@
     <xf numFmtId="0" fontId="0" fillId="5" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="0"/>
-  <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
+  <dxfs count="2">
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFD7D7D7"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+      </font>
+      <fill>
+        <patternFill patternType="none">
+          <bgColor indexed="65"/>
+        </patternFill>
+      </fill>
+    </dxf>
+  </dxfs>
+  <tableStyles count="1" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16">
+    <tableStyle name="MySqlDefault" pivot="0" table="0" count="2">
+      <tableStyleElement type="wholeTable" dxfId="1"/>
+      <tableStyleElement type="headerRow" dxfId="0"/>
+    </tableStyle>
+  </tableStyles>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
@@ -1102,852 +1149,913 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:E58"/>
+  <dimension ref="A1:F58"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D56" sqref="D56"/>
+      <selection activeCell="F11" sqref="F11:F20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="9.140625" style="2"/>
-    <col min="2" max="2" width="9.140625" style="9"/>
+    <col min="2" max="2" width="9.140625" style="5"/>
     <col min="3" max="4" width="9.140625" style="2"/>
     <col min="5" max="6" width="28.28515625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="C1" s="3" t="s">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="C1" s="10" t="s">
         <v>51</v>
       </c>
-      <c r="D1" s="3"/>
-    </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A2" s="11" t="s">
+      <c r="D1" s="10"/>
+    </row>
+    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A2" s="7" t="s">
         <v>29</v>
       </c>
-      <c r="B2" s="10" t="s">
+      <c r="B2" s="6" t="s">
         <v>18</v>
       </c>
-      <c r="C2" s="11" t="s">
+      <c r="C2" s="7" t="s">
         <v>52</v>
       </c>
-      <c r="D2" s="11" t="s">
+      <c r="D2" s="7" t="s">
         <v>53</v>
       </c>
-      <c r="E2" s="4"/>
-    </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A3" s="11">
+      <c r="E2" s="3" t="s">
+        <v>109</v>
+      </c>
+      <c r="F2" s="20" t="s">
+        <v>110</v>
+      </c>
+    </row>
+    <row r="3" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A3" s="7">
         <v>0</v>
       </c>
-      <c r="B3" s="10" t="s">
+      <c r="B3" s="6" t="s">
         <v>55</v>
       </c>
-      <c r="C3" s="6" t="s">
+      <c r="C3" s="11" t="s">
         <v>54</v>
       </c>
-      <c r="D3" s="5">
+      <c r="D3" s="4">
         <v>0</v>
       </c>
-      <c r="E3" s="4" t="s">
+      <c r="E3" s="3" t="s">
         <v>1</v>
       </c>
-    </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A4" s="11">
+      <c r="F3" s="21"/>
+    </row>
+    <row r="4" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A4" s="7">
         <v>1</v>
       </c>
-      <c r="B4" s="10" t="s">
+      <c r="B4" s="6" t="s">
         <v>56</v>
       </c>
-      <c r="C4" s="7"/>
-      <c r="D4" s="5">
+      <c r="C4" s="12"/>
+      <c r="D4" s="4">
         <v>1</v>
       </c>
-      <c r="E4" s="4" t="s">
+      <c r="E4" s="3" t="s">
         <v>30</v>
       </c>
-    </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A5" s="11">
+      <c r="F4" s="21"/>
+    </row>
+    <row r="5" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A5" s="7">
         <v>2</v>
       </c>
-      <c r="B5" s="10" t="s">
+      <c r="B5" s="6" t="s">
         <v>57</v>
       </c>
-      <c r="C5" s="7"/>
-      <c r="D5" s="5">
+      <c r="C5" s="12"/>
+      <c r="D5" s="4">
         <v>2</v>
       </c>
-      <c r="E5" s="4" t="s">
+      <c r="E5" s="3" t="s">
         <v>2</v>
       </c>
-    </row>
-    <row r="6" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A6" s="11">
+      <c r="F5" s="21"/>
+    </row>
+    <row r="6" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A6" s="7">
         <v>3</v>
       </c>
-      <c r="B6" s="10" t="s">
+      <c r="B6" s="6" t="s">
         <v>58</v>
       </c>
-      <c r="C6" s="7"/>
-      <c r="D6" s="5">
+      <c r="C6" s="12"/>
+      <c r="D6" s="4">
         <v>3</v>
       </c>
-      <c r="E6" s="4" t="s">
+      <c r="E6" s="3" t="s">
         <v>31</v>
       </c>
-    </row>
-    <row r="7" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A7" s="11">
+      <c r="F6" s="21"/>
+    </row>
+    <row r="7" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A7" s="7">
         <v>4</v>
       </c>
-      <c r="B7" s="10" t="s">
+      <c r="B7" s="6" t="s">
         <v>59</v>
       </c>
-      <c r="C7" s="7"/>
-      <c r="D7" s="5">
+      <c r="C7" s="12"/>
+      <c r="D7" s="4">
         <v>4</v>
       </c>
-      <c r="E7" s="4"/>
-    </row>
-    <row r="8" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A8" s="11">
+      <c r="E7" s="3"/>
+      <c r="F7" s="3"/>
+    </row>
+    <row r="8" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A8" s="7">
         <v>5</v>
       </c>
-      <c r="B8" s="10" t="s">
+      <c r="B8" s="6" t="s">
         <v>60</v>
       </c>
-      <c r="C8" s="7"/>
-      <c r="D8" s="5">
+      <c r="C8" s="12"/>
+      <c r="D8" s="4">
         <v>5</v>
       </c>
-      <c r="E8" s="4"/>
-    </row>
-    <row r="9" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A9" s="11">
+      <c r="E8" s="3"/>
+      <c r="F8" s="3"/>
+    </row>
+    <row r="9" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A9" s="7">
         <v>6</v>
       </c>
-      <c r="B9" s="10" t="s">
+      <c r="B9" s="6" t="s">
         <v>61</v>
       </c>
-      <c r="C9" s="7"/>
-      <c r="D9" s="5">
+      <c r="C9" s="12"/>
+      <c r="D9" s="4">
         <v>6</v>
       </c>
-      <c r="E9" s="4"/>
-    </row>
-    <row r="10" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A10" s="11">
+      <c r="E9" s="3"/>
+      <c r="F9" s="3"/>
+    </row>
+    <row r="10" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A10" s="7">
         <v>7</v>
       </c>
-      <c r="B10" s="10" t="s">
+      <c r="B10" s="6" t="s">
         <v>62</v>
       </c>
-      <c r="C10" s="8"/>
-      <c r="D10" s="5">
+      <c r="C10" s="13"/>
+      <c r="D10" s="4">
         <v>7</v>
       </c>
-      <c r="E10" s="4"/>
-    </row>
-    <row r="11" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A11" s="11">
+      <c r="E10" s="3"/>
+      <c r="F10" s="3"/>
+    </row>
+    <row r="11" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A11" s="7">
         <v>8</v>
       </c>
-      <c r="B11" s="10" t="s">
+      <c r="B11" s="6" t="s">
         <v>63</v>
       </c>
-      <c r="C11" s="13">
+      <c r="C11" s="14">
         <v>3208</v>
       </c>
-      <c r="D11" s="12">
+      <c r="D11" s="8">
         <v>0</v>
       </c>
-      <c r="E11" s="4" t="s">
+      <c r="E11" s="3" t="s">
         <v>33</v>
       </c>
-    </row>
-    <row r="12" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A12" s="11">
+      <c r="F11" s="21"/>
+    </row>
+    <row r="12" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A12" s="7">
         <v>9</v>
       </c>
-      <c r="B12" s="10" t="s">
+      <c r="B12" s="6" t="s">
         <v>64</v>
       </c>
-      <c r="C12" s="14"/>
-      <c r="D12" s="12">
+      <c r="C12" s="15"/>
+      <c r="D12" s="8">
         <v>1</v>
       </c>
-      <c r="E12" s="4" t="s">
+      <c r="E12" s="3" t="s">
         <v>34</v>
       </c>
-    </row>
-    <row r="13" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A13" s="11">
+      <c r="F12" s="21"/>
+    </row>
+    <row r="13" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A13" s="7">
         <v>10</v>
       </c>
-      <c r="B13" s="10" t="s">
+      <c r="B13" s="6" t="s">
         <v>65</v>
       </c>
-      <c r="C13" s="14"/>
-      <c r="D13" s="12">
+      <c r="C13" s="15"/>
+      <c r="D13" s="8">
         <v>2</v>
       </c>
-      <c r="E13" s="4" t="s">
+      <c r="E13" s="3" t="s">
         <v>35</v>
       </c>
-    </row>
-    <row r="14" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A14" s="11">
+      <c r="F13" s="21"/>
+    </row>
+    <row r="14" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A14" s="7">
         <v>11</v>
       </c>
-      <c r="B14" s="10" t="s">
+      <c r="B14" s="6" t="s">
         <v>66</v>
       </c>
-      <c r="C14" s="14"/>
-      <c r="D14" s="12">
+      <c r="C14" s="15"/>
+      <c r="D14" s="8">
         <v>3</v>
       </c>
-      <c r="E14" s="4" t="s">
+      <c r="E14" s="3" t="s">
         <v>36</v>
       </c>
-    </row>
-    <row r="15" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A15" s="11">
+      <c r="F14" s="21"/>
+    </row>
+    <row r="15" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A15" s="7">
         <v>12</v>
       </c>
-      <c r="B15" s="10" t="s">
+      <c r="B15" s="6" t="s">
         <v>67</v>
       </c>
-      <c r="C15" s="14"/>
-      <c r="D15" s="12">
+      <c r="C15" s="15"/>
+      <c r="D15" s="8">
         <v>4</v>
       </c>
-      <c r="E15" s="4" t="s">
+      <c r="E15" s="3" t="s">
         <v>37</v>
       </c>
-    </row>
-    <row r="16" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A16" s="11">
+      <c r="F15" s="21"/>
+    </row>
+    <row r="16" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A16" s="7">
         <v>13</v>
       </c>
-      <c r="B16" s="10" t="s">
+      <c r="B16" s="6" t="s">
         <v>68</v>
       </c>
-      <c r="C16" s="14"/>
-      <c r="D16" s="12">
+      <c r="C16" s="15"/>
+      <c r="D16" s="8">
         <v>5</v>
       </c>
-      <c r="E16" s="4" t="s">
+      <c r="E16" s="3" t="s">
         <v>38</v>
       </c>
-    </row>
-    <row r="17" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A17" s="11">
+      <c r="F16" s="21"/>
+    </row>
+    <row r="17" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A17" s="7">
         <v>14</v>
       </c>
-      <c r="B17" s="10" t="s">
+      <c r="B17" s="6" t="s">
         <v>69</v>
       </c>
-      <c r="C17" s="14"/>
-      <c r="D17" s="12">
+      <c r="C17" s="15"/>
+      <c r="D17" s="8">
         <v>6</v>
       </c>
-      <c r="E17" s="4" t="s">
+      <c r="E17" s="3" t="s">
         <v>39</v>
       </c>
-    </row>
-    <row r="18" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A18" s="11">
+      <c r="F17" s="21"/>
+    </row>
+    <row r="18" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A18" s="7">
         <v>15</v>
       </c>
-      <c r="B18" s="10" t="s">
+      <c r="B18" s="6" t="s">
         <v>70</v>
       </c>
-      <c r="C18" s="14"/>
-      <c r="D18" s="12">
+      <c r="C18" s="15"/>
+      <c r="D18" s="8">
         <v>7</v>
       </c>
-      <c r="E18" s="4" t="s">
+      <c r="E18" s="3" t="s">
         <v>32</v>
       </c>
-    </row>
-    <row r="19" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A19" s="11">
+      <c r="F18" s="21"/>
+    </row>
+    <row r="19" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A19" s="7">
         <v>16</v>
       </c>
-      <c r="B19" s="10" t="s">
+      <c r="B19" s="6" t="s">
         <v>71</v>
       </c>
-      <c r="C19" s="14"/>
-      <c r="D19" s="12">
+      <c r="C19" s="15"/>
+      <c r="D19" s="8">
         <v>8</v>
       </c>
-      <c r="E19" s="4" t="s">
+      <c r="E19" s="3" t="s">
         <v>46</v>
       </c>
-    </row>
-    <row r="20" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A20" s="11">
+      <c r="F19" s="21"/>
+    </row>
+    <row r="20" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A20" s="7">
         <v>17</v>
       </c>
-      <c r="B20" s="10" t="s">
+      <c r="B20" s="6" t="s">
         <v>72</v>
       </c>
-      <c r="C20" s="14"/>
-      <c r="D20" s="12">
+      <c r="C20" s="15"/>
+      <c r="D20" s="8">
         <v>9</v>
       </c>
-      <c r="E20" s="4" t="s">
+      <c r="E20" s="3" t="s">
         <v>12</v>
       </c>
-    </row>
-    <row r="21" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A21" s="11">
+      <c r="F20" s="21"/>
+    </row>
+    <row r="21" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A21" s="7">
         <v>18</v>
       </c>
-      <c r="B21" s="10" t="s">
+      <c r="B21" s="6" t="s">
         <v>73</v>
       </c>
-      <c r="C21" s="14"/>
-      <c r="D21" s="12">
+      <c r="C21" s="15"/>
+      <c r="D21" s="8">
         <v>10</v>
       </c>
-      <c r="E21" s="4" t="s">
+      <c r="E21" s="3" t="s">
         <v>45</v>
       </c>
-    </row>
-    <row r="22" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A22" s="11">
+      <c r="F21" s="3"/>
+    </row>
+    <row r="22" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A22" s="7">
         <v>19</v>
       </c>
-      <c r="B22" s="10" t="s">
+      <c r="B22" s="6" t="s">
         <v>74</v>
       </c>
-      <c r="C22" s="14"/>
-      <c r="D22" s="12">
+      <c r="C22" s="15"/>
+      <c r="D22" s="8">
         <v>11</v>
       </c>
-      <c r="E22" s="4" t="s">
+      <c r="E22" s="3" t="s">
         <v>45</v>
       </c>
-    </row>
-    <row r="23" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A23" s="11">
+      <c r="F22" s="3"/>
+    </row>
+    <row r="23" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A23" s="7">
         <v>20</v>
       </c>
-      <c r="B23" s="10" t="s">
+      <c r="B23" s="6" t="s">
         <v>75</v>
       </c>
-      <c r="C23" s="14"/>
-      <c r="D23" s="12">
+      <c r="C23" s="15"/>
+      <c r="D23" s="8">
         <v>12</v>
       </c>
-      <c r="E23" s="4" t="s">
+      <c r="E23" s="3" t="s">
         <v>45</v>
       </c>
-    </row>
-    <row r="24" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A24" s="11">
+      <c r="F23" s="3"/>
+    </row>
+    <row r="24" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A24" s="7">
         <v>21</v>
       </c>
-      <c r="B24" s="10" t="s">
+      <c r="B24" s="6" t="s">
         <v>76</v>
       </c>
-      <c r="C24" s="14"/>
-      <c r="D24" s="12">
+      <c r="C24" s="15"/>
+      <c r="D24" s="8">
         <v>13</v>
       </c>
-      <c r="E24" s="4" t="s">
+      <c r="E24" s="3" t="s">
         <v>45</v>
       </c>
-    </row>
-    <row r="25" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A25" s="11">
+      <c r="F24" s="3"/>
+    </row>
+    <row r="25" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A25" s="7">
         <v>22</v>
       </c>
-      <c r="B25" s="10" t="s">
+      <c r="B25" s="6" t="s">
         <v>77</v>
       </c>
-      <c r="C25" s="14"/>
-      <c r="D25" s="12">
+      <c r="C25" s="15"/>
+      <c r="D25" s="8">
         <v>14</v>
       </c>
-      <c r="E25" s="4" t="s">
+      <c r="E25" s="3" t="s">
         <v>45</v>
       </c>
-    </row>
-    <row r="26" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A26" s="11">
+      <c r="F25" s="3"/>
+    </row>
+    <row r="26" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A26" s="7">
         <v>23</v>
       </c>
-      <c r="B26" s="10" t="s">
+      <c r="B26" s="6" t="s">
         <v>78</v>
       </c>
-      <c r="C26" s="14"/>
-      <c r="D26" s="12">
+      <c r="C26" s="15"/>
+      <c r="D26" s="8">
         <v>15</v>
       </c>
-      <c r="E26" s="4" t="s">
+      <c r="E26" s="3" t="s">
         <v>44</v>
       </c>
-    </row>
-    <row r="27" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A27" s="11">
+      <c r="F26" s="3"/>
+    </row>
+    <row r="27" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A27" s="7">
         <v>24</v>
       </c>
-      <c r="B27" s="10" t="s">
+      <c r="B27" s="6" t="s">
         <v>79</v>
       </c>
-      <c r="C27" s="14"/>
-      <c r="D27" s="12">
+      <c r="C27" s="15"/>
+      <c r="D27" s="8">
         <v>16</v>
       </c>
-      <c r="E27" s="4" t="s">
+      <c r="E27" s="3" t="s">
         <v>10</v>
       </c>
-    </row>
-    <row r="28" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A28" s="11">
+      <c r="F27" s="3"/>
+    </row>
+    <row r="28" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A28" s="7">
         <v>25</v>
       </c>
-      <c r="B28" s="10" t="s">
+      <c r="B28" s="6" t="s">
         <v>80</v>
       </c>
-      <c r="C28" s="14"/>
-      <c r="D28" s="12">
+      <c r="C28" s="15"/>
+      <c r="D28" s="8">
         <v>17</v>
       </c>
-      <c r="E28" s="4" t="s">
+      <c r="E28" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="29" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A29" s="11">
+      <c r="F28" s="3"/>
+    </row>
+    <row r="29" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A29" s="7">
         <v>26</v>
       </c>
-      <c r="B29" s="10" t="s">
+      <c r="B29" s="6" t="s">
         <v>25</v>
       </c>
-      <c r="C29" s="14"/>
-      <c r="D29" s="12">
+      <c r="C29" s="15"/>
+      <c r="D29" s="8">
         <v>18</v>
       </c>
-      <c r="E29" s="4" t="s">
+      <c r="E29" s="3" t="s">
         <v>40</v>
       </c>
-    </row>
-    <row r="30" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A30" s="11">
+      <c r="F29" s="3"/>
+    </row>
+    <row r="30" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A30" s="7">
         <v>27</v>
       </c>
-      <c r="B30" s="10" t="s">
+      <c r="B30" s="6" t="s">
         <v>26</v>
       </c>
-      <c r="C30" s="14"/>
-      <c r="D30" s="12">
+      <c r="C30" s="15"/>
+      <c r="D30" s="8">
         <v>19</v>
       </c>
-      <c r="E30" s="4" t="s">
+      <c r="E30" s="3" t="s">
         <v>41</v>
       </c>
-    </row>
-    <row r="31" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A31" s="11">
+      <c r="F30" s="3"/>
+    </row>
+    <row r="31" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A31" s="7">
         <v>28</v>
       </c>
-      <c r="B31" s="10" t="s">
+      <c r="B31" s="6" t="s">
         <v>84</v>
       </c>
-      <c r="C31" s="14"/>
-      <c r="D31" s="12">
+      <c r="C31" s="15"/>
+      <c r="D31" s="8">
         <v>20</v>
       </c>
-      <c r="E31" s="4" t="s">
+      <c r="E31" s="3" t="s">
         <v>42</v>
       </c>
-    </row>
-    <row r="32" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A32" s="11">
+      <c r="F31" s="3"/>
+    </row>
+    <row r="32" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A32" s="7">
         <v>29</v>
       </c>
-      <c r="B32" s="10" t="s">
+      <c r="B32" s="6" t="s">
         <v>85</v>
       </c>
-      <c r="C32" s="14"/>
-      <c r="D32" s="12">
+      <c r="C32" s="15"/>
+      <c r="D32" s="8">
         <v>21</v>
       </c>
-      <c r="E32" s="4" t="s">
+      <c r="E32" s="3" t="s">
         <v>43</v>
       </c>
-    </row>
-    <row r="33" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A33" s="11">
+      <c r="F32" s="3"/>
+    </row>
+    <row r="33" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A33" s="7">
         <v>30</v>
       </c>
-      <c r="B33" s="10" t="s">
+      <c r="B33" s="6" t="s">
         <v>86</v>
       </c>
-      <c r="C33" s="14"/>
-      <c r="D33" s="12">
+      <c r="C33" s="15"/>
+      <c r="D33" s="8">
         <v>22</v>
       </c>
-      <c r="E33" s="4"/>
-    </row>
-    <row r="34" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A34" s="11">
+      <c r="E33" s="3"/>
+      <c r="F33" s="3"/>
+    </row>
+    <row r="34" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A34" s="7">
         <v>31</v>
       </c>
-      <c r="B34" s="10" t="s">
+      <c r="B34" s="6" t="s">
         <v>87</v>
       </c>
-      <c r="C34" s="14"/>
-      <c r="D34" s="12">
+      <c r="C34" s="15"/>
+      <c r="D34" s="8">
         <v>23</v>
       </c>
-      <c r="E34" s="4"/>
-    </row>
-    <row r="35" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A35" s="11">
+      <c r="E34" s="3"/>
+      <c r="F34" s="3"/>
+    </row>
+    <row r="35" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A35" s="7">
         <v>32</v>
       </c>
-      <c r="B35" s="10" t="s">
+      <c r="B35" s="6" t="s">
         <v>81</v>
       </c>
-      <c r="C35" s="14"/>
-      <c r="D35" s="12">
+      <c r="C35" s="15"/>
+      <c r="D35" s="8">
         <v>24</v>
       </c>
-      <c r="E35" s="4"/>
-    </row>
-    <row r="36" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A36" s="11">
+      <c r="E35" s="3"/>
+      <c r="F35" s="3"/>
+    </row>
+    <row r="36" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A36" s="7">
         <v>33</v>
       </c>
-      <c r="B36" s="10" t="s">
+      <c r="B36" s="6" t="s">
         <v>82</v>
       </c>
-      <c r="C36" s="14"/>
-      <c r="D36" s="12">
+      <c r="C36" s="15"/>
+      <c r="D36" s="8">
         <v>25</v>
       </c>
-      <c r="E36" s="4"/>
-    </row>
-    <row r="37" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A37" s="11">
+      <c r="E36" s="3"/>
+      <c r="F36" s="3"/>
+    </row>
+    <row r="37" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A37" s="7">
         <v>34</v>
       </c>
-      <c r="B37" s="10" t="s">
+      <c r="B37" s="6" t="s">
         <v>83</v>
       </c>
-      <c r="C37" s="14"/>
-      <c r="D37" s="12">
+      <c r="C37" s="15"/>
+      <c r="D37" s="8">
         <v>26</v>
       </c>
-      <c r="E37" s="4"/>
-    </row>
-    <row r="38" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A38" s="11">
+      <c r="E37" s="3"/>
+      <c r="F37" s="3"/>
+    </row>
+    <row r="38" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A38" s="7">
         <v>35</v>
       </c>
-      <c r="B38" s="10" t="s">
+      <c r="B38" s="6" t="s">
         <v>88</v>
       </c>
-      <c r="C38" s="14"/>
-      <c r="D38" s="12">
+      <c r="C38" s="15"/>
+      <c r="D38" s="8">
         <v>27</v>
       </c>
-      <c r="E38" s="4"/>
-    </row>
-    <row r="39" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A39" s="11">
+      <c r="E38" s="3"/>
+      <c r="F38" s="3"/>
+    </row>
+    <row r="39" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A39" s="7">
         <v>36</v>
       </c>
-      <c r="B39" s="10" t="s">
+      <c r="B39" s="6" t="s">
         <v>89</v>
       </c>
-      <c r="C39" s="14"/>
-      <c r="D39" s="12">
+      <c r="C39" s="15"/>
+      <c r="D39" s="8">
         <v>28</v>
       </c>
-      <c r="E39" s="4"/>
-    </row>
-    <row r="40" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A40" s="11">
+      <c r="E39" s="3"/>
+      <c r="F39" s="3"/>
+    </row>
+    <row r="40" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A40" s="7">
         <v>37</v>
       </c>
-      <c r="B40" s="10" t="s">
+      <c r="B40" s="6" t="s">
         <v>90</v>
       </c>
-      <c r="C40" s="14"/>
-      <c r="D40" s="12">
+      <c r="C40" s="15"/>
+      <c r="D40" s="8">
         <v>29</v>
       </c>
-      <c r="E40" s="4"/>
-    </row>
-    <row r="41" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A41" s="11">
+      <c r="E40" s="3"/>
+      <c r="F40" s="3"/>
+    </row>
+    <row r="41" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A41" s="7">
         <v>38</v>
       </c>
-      <c r="B41" s="10" t="s">
+      <c r="B41" s="6" t="s">
         <v>91</v>
       </c>
-      <c r="C41" s="14"/>
-      <c r="D41" s="12">
+      <c r="C41" s="15"/>
+      <c r="D41" s="8">
         <v>30</v>
       </c>
-      <c r="E41" s="4"/>
-    </row>
-    <row r="42" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A42" s="11">
+      <c r="E41" s="3"/>
+      <c r="F41" s="3"/>
+    </row>
+    <row r="42" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A42" s="7">
         <v>39</v>
       </c>
-      <c r="B42" s="10" t="s">
+      <c r="B42" s="6" t="s">
         <v>92</v>
       </c>
-      <c r="C42" s="15"/>
-      <c r="D42" s="12">
+      <c r="C42" s="16"/>
+      <c r="D42" s="8">
         <v>31</v>
       </c>
-      <c r="E42" s="4"/>
-    </row>
-    <row r="43" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A43" s="11">
+      <c r="E42" s="3"/>
+      <c r="F42" s="3"/>
+    </row>
+    <row r="43" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A43" s="7">
         <v>40</v>
       </c>
-      <c r="B43" s="10" t="s">
+      <c r="B43" s="6" t="s">
         <v>93</v>
       </c>
       <c r="C43" s="17">
         <v>1616</v>
       </c>
-      <c r="D43" s="16">
+      <c r="D43" s="9">
         <v>0</v>
       </c>
-      <c r="E43" s="4" t="s">
+      <c r="E43" s="3" t="s">
         <v>17</v>
       </c>
-    </row>
-    <row r="44" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A44" s="11">
+      <c r="F43" s="3"/>
+    </row>
+    <row r="44" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A44" s="7">
         <v>41</v>
       </c>
-      <c r="B44" s="10" t="s">
+      <c r="B44" s="6" t="s">
         <v>94</v>
       </c>
       <c r="C44" s="18"/>
-      <c r="D44" s="16">
+      <c r="D44" s="9">
         <v>1</v>
       </c>
-      <c r="E44" s="4" t="s">
+      <c r="E44" s="3" t="s">
         <v>16</v>
       </c>
-    </row>
-    <row r="45" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A45" s="11">
+      <c r="F44" s="3"/>
+    </row>
+    <row r="45" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A45" s="7">
         <v>42</v>
       </c>
-      <c r="B45" s="10" t="s">
+      <c r="B45" s="6" t="s">
         <v>100</v>
       </c>
       <c r="C45" s="18"/>
-      <c r="D45" s="16">
+      <c r="D45" s="9">
         <v>2</v>
       </c>
-      <c r="E45" s="4" t="s">
+      <c r="E45" s="3" t="s">
         <v>15</v>
       </c>
-    </row>
-    <row r="46" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A46" s="11">
+      <c r="F45" s="3"/>
+    </row>
+    <row r="46" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A46" s="7">
         <v>43</v>
       </c>
-      <c r="B46" s="10" t="s">
+      <c r="B46" s="6" t="s">
         <v>101</v>
       </c>
       <c r="C46" s="18"/>
-      <c r="D46" s="16">
+      <c r="D46" s="9">
         <v>3</v>
       </c>
-      <c r="E46" s="4" t="s">
+      <c r="E46" s="3" t="s">
         <v>47</v>
       </c>
-    </row>
-    <row r="47" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A47" s="11">
+      <c r="F46" s="3"/>
+    </row>
+    <row r="47" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A47" s="7">
         <v>44</v>
       </c>
-      <c r="B47" s="10" t="s">
+      <c r="B47" s="6" t="s">
         <v>102</v>
       </c>
       <c r="C47" s="18"/>
-      <c r="D47" s="16">
+      <c r="D47" s="9">
         <v>4</v>
       </c>
-      <c r="E47" s="4" t="s">
+      <c r="E47" s="3" t="s">
         <v>48</v>
       </c>
-    </row>
-    <row r="48" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A48" s="11">
+      <c r="F47" s="3"/>
+    </row>
+    <row r="48" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A48" s="7">
         <v>45</v>
       </c>
-      <c r="B48" s="10" t="s">
+      <c r="B48" s="6" t="s">
         <v>103</v>
       </c>
       <c r="C48" s="18"/>
-      <c r="D48" s="16">
+      <c r="D48" s="9">
         <v>5</v>
       </c>
-      <c r="E48" s="4" t="s">
+      <c r="E48" s="3" t="s">
         <v>49</v>
       </c>
-    </row>
-    <row r="49" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A49" s="11">
+      <c r="F48" s="3"/>
+    </row>
+    <row r="49" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A49" s="7">
         <v>46</v>
       </c>
-      <c r="B49" s="10" t="s">
+      <c r="B49" s="6" t="s">
         <v>104</v>
       </c>
       <c r="C49" s="18"/>
-      <c r="D49" s="16">
+      <c r="D49" s="9">
         <v>6</v>
       </c>
-      <c r="E49" s="4"/>
-    </row>
-    <row r="50" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A50" s="11">
+      <c r="E49" s="3"/>
+      <c r="F49" s="3"/>
+    </row>
+    <row r="50" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A50" s="7">
         <v>47</v>
       </c>
-      <c r="B50" s="10" t="s">
+      <c r="B50" s="6" t="s">
         <v>105</v>
       </c>
       <c r="C50" s="18"/>
-      <c r="D50" s="16">
+      <c r="D50" s="9">
         <v>7</v>
       </c>
-      <c r="E50" s="4"/>
-    </row>
-    <row r="51" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A51" s="11">
+      <c r="E50" s="3"/>
+      <c r="F50" s="3"/>
+    </row>
+    <row r="51" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A51" s="7">
         <v>48</v>
       </c>
-      <c r="B51" s="10" t="s">
+      <c r="B51" s="6" t="s">
         <v>95</v>
       </c>
       <c r="C51" s="18"/>
-      <c r="D51" s="16">
+      <c r="D51" s="9">
         <v>8</v>
       </c>
-      <c r="E51" s="4" t="s">
+      <c r="E51" s="3" t="s">
         <v>50</v>
       </c>
-    </row>
-    <row r="52" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A52" s="11">
+      <c r="F51" s="3"/>
+    </row>
+    <row r="52" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A52" s="7">
         <v>49</v>
       </c>
-      <c r="B52" s="10" t="s">
+      <c r="B52" s="6" t="s">
         <v>96</v>
       </c>
       <c r="C52" s="18"/>
-      <c r="D52" s="16">
+      <c r="D52" s="9">
         <v>9</v>
       </c>
-      <c r="E52" s="4" t="s">
+      <c r="E52" s="3" t="s">
         <v>50</v>
       </c>
-    </row>
-    <row r="53" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A53" s="11">
+      <c r="F52" s="3"/>
+    </row>
+    <row r="53" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A53" s="7">
         <v>50</v>
       </c>
-      <c r="B53" s="10" t="s">
+      <c r="B53" s="6" t="s">
         <v>97</v>
       </c>
       <c r="C53" s="18"/>
-      <c r="D53" s="16">
+      <c r="D53" s="9">
         <v>10</v>
       </c>
-      <c r="E53" s="4" t="s">
+      <c r="E53" s="3" t="s">
         <v>50</v>
       </c>
-    </row>
-    <row r="54" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A54" s="11">
+      <c r="F53" s="3"/>
+    </row>
+    <row r="54" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A54" s="7">
         <v>51</v>
       </c>
-      <c r="B54" s="10" t="s">
+      <c r="B54" s="6" t="s">
         <v>98</v>
       </c>
       <c r="C54" s="18"/>
-      <c r="D54" s="16">
+      <c r="D54" s="9">
         <v>11</v>
       </c>
-      <c r="E54" s="4" t="s">
+      <c r="E54" s="3" t="s">
         <v>50</v>
       </c>
-    </row>
-    <row r="55" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A55" s="11">
+      <c r="F54" s="3"/>
+    </row>
+    <row r="55" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A55" s="7">
         <v>52</v>
       </c>
-      <c r="B55" s="10" t="s">
+      <c r="B55" s="6" t="s">
         <v>99</v>
       </c>
       <c r="C55" s="18"/>
-      <c r="D55" s="16">
+      <c r="D55" s="9">
         <v>12</v>
       </c>
-      <c r="E55" s="4" t="s">
+      <c r="E55" s="3" t="s">
         <v>50</v>
       </c>
-    </row>
-    <row r="56" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A56" s="11">
+      <c r="F55" s="3"/>
+    </row>
+    <row r="56" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A56" s="7">
         <v>53</v>
       </c>
-      <c r="B56" s="10" t="s">
+      <c r="B56" s="6" t="s">
         <v>106</v>
       </c>
       <c r="C56" s="18"/>
-      <c r="D56" s="16">
+      <c r="D56" s="9">
         <v>13</v>
       </c>
-      <c r="E56" s="4" t="s">
+      <c r="E56" s="3" t="s">
         <v>50</v>
       </c>
-    </row>
-    <row r="57" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A57" s="11">
+      <c r="F56" s="3"/>
+    </row>
+    <row r="57" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A57" s="7">
         <v>54</v>
       </c>
-      <c r="B57" s="10" t="s">
+      <c r="B57" s="6" t="s">
         <v>107</v>
       </c>
       <c r="C57" s="18"/>
-      <c r="D57" s="16">
+      <c r="D57" s="9">
         <v>14</v>
       </c>
-      <c r="E57" s="4" t="s">
+      <c r="E57" s="3" t="s">
         <v>50</v>
       </c>
-    </row>
-    <row r="58" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A58" s="11">
+      <c r="F57" s="3"/>
+    </row>
+    <row r="58" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A58" s="7">
         <v>55</v>
       </c>
-      <c r="B58" s="10" t="s">
+      <c r="B58" s="6" t="s">
         <v>108</v>
       </c>
       <c r="C58" s="19"/>
-      <c r="D58" s="16">
+      <c r="D58" s="9">
         <v>15</v>
       </c>
-      <c r="E58" s="4"/>
+      <c r="E58" s="3"/>
+      <c r="F58" s="3"/>
     </row>
   </sheetData>
   <mergeCells count="4">
